--- a/data_output/pumping_gsp.xlsx
+++ b/data_output/pumping_gsp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richpauloo/Dropbox (LWA)/data/sonoma_co_gsas_rate_fee/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richpauloo/Documents/GitHub/gfs/data_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBD7278-471E-884B-9DC4-298706A4A7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1975F41-63EB-6F4A-9D6F-F2A54A3EF139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="-3500" windowWidth="37540" windowHeight="18860" xr2:uid="{5DFC9CCE-534F-F441-84DE-65AE2F7E2A87}"/>
+    <workbookView xWindow="-40" yWindow="460" windowWidth="33820" windowHeight="18860" xr2:uid="{5DFC9CCE-534F-F441-84DE-65AE2F7E2A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -724,7 +724,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
